--- a/03.crawler/03.eBay/file/1.item_number/crawler_1.xlsx
+++ b/03.crawler/03.eBay/file/1.item_number/crawler_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14040"/>
+    <workbookView windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,34 +35,34 @@
     <t>Item Number</t>
   </si>
   <si>
-    <t>253139036562</t>
+    <t>255410646663</t>
   </si>
   <si>
-    <t>255922672592</t>
+    <t>335270737835</t>
   </si>
   <si>
-    <t>235653299500</t>
+    <t>232315264904</t>
   </si>
   <si>
-    <t>255586148611</t>
+    <t>235748987359</t>
   </si>
   <si>
-    <t>233621258535</t>
+    <t>252900220689</t>
   </si>
   <si>
-    <t>332388018897</t>
+    <t>235461387733</t>
   </si>
   <si>
-    <t>256421824484</t>
+    <t>235544392154</t>
   </si>
   <si>
-    <t>334041367847</t>
+    <t>256469386720</t>
   </si>
   <si>
-    <t>256102649999</t>
+    <t>334348192867</t>
   </si>
   <si>
-    <t>256202118103</t>
+    <t>232479816006</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD487"/>
+      <selection activeCell="A12" sqref="$A12:$XFD513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>

--- a/03.crawler/03.eBay/file/1.item_number/crawler_1.xlsx
+++ b/03.crawler/03.eBay/file/1.item_number/crawler_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14600"/>
+    <workbookView windowWidth="20780" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,34 +35,34 @@
     <t>Item Number</t>
   </si>
   <si>
-    <t>255410646663</t>
-  </si>
-  <si>
-    <t>335270737835</t>
-  </si>
-  <si>
     <t>232315264904</t>
   </si>
   <si>
-    <t>235748987359</t>
+    <t>335513085831</t>
   </si>
   <si>
-    <t>252900220689</t>
+    <t>255628697516</t>
   </si>
   <si>
     <t>235461387733</t>
   </si>
   <si>
-    <t>235544392154</t>
+    <t>334707355204</t>
   </si>
   <si>
-    <t>256469386720</t>
+    <t>335372891937</t>
   </si>
   <si>
-    <t>334348192867</t>
+    <t>256102649999</t>
   </si>
   <si>
-    <t>232479816006</t>
+    <t>335057592559</t>
+  </si>
+  <si>
+    <t>256264372483</t>
+  </si>
+  <si>
+    <t>334041377271</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD513"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
